--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26306"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BAFCBE-9025-4965-BCC7-59795176AE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE6DB8C-2DD6-42D1-AF16-E8459D5B86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
     <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId4"/>
+    <sheet name="custom_data" sheetId="5" r:id="rId4"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId5"/>
+    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="148">
   <si>
     <t>segment</t>
   </si>
@@ -42,7 +44,7 @@
     <t>HK</t>
   </si>
   <si>
-    <t>Hong Kong</t>
+    <t>Hong kong</t>
   </si>
   <si>
     <t>KR</t>
@@ -111,16 +113,13 @@
     <t>invalid_password</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>IBTQAUKIE</t>
-  </si>
-  <si>
-    <t>2j*z*RF&amp;ZC4EMAf</t>
+    <t>new_password</t>
+  </si>
+  <si>
+    <t>IBTQHKLAN</t>
+  </si>
+  <si>
+    <t>hSh@86j8FP</t>
   </si>
   <si>
     <t>IBTQQQQ</t>
@@ -129,7 +128,25 @@
     <t>2j*z*RRRRRR</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>Loreal@123</t>
+  </si>
+  <si>
+    <t>IBTQKRLAN</t>
+  </si>
+  <si>
+    <t>9S33NXxL^wHz3</t>
+  </si>
+  <si>
+    <t>IBTQAULAN</t>
+  </si>
+  <si>
+    <t>oW3aGorVlfB&amp;%0B</t>
+  </si>
+  <si>
+    <t>IBTQTWLAN</t>
+  </si>
+  <si>
+    <t>Gq9DKH@8S1</t>
   </si>
   <si>
     <t>IBTQJPLAN</t>
@@ -138,10 +155,31 @@
     <t>K5@m(4)6QH</t>
   </si>
   <si>
-    <t>PKK6025386</t>
-  </si>
-  <si>
-    <t>Loreal@123</t>
+    <t>080LANCM</t>
+  </si>
+  <si>
+    <t>Loreal@1234</t>
+  </si>
+  <si>
+    <t>IBTQTHLAN</t>
+  </si>
+  <si>
+    <t>x6vw4mCp#</t>
+  </si>
+  <si>
+    <t>IBTQSGLAN</t>
+  </si>
+  <si>
+    <t>sTUJ#5$d</t>
+  </si>
+  <si>
+    <t>IBTQNZKIE</t>
+  </si>
+  <si>
+    <t>0W3aGorHED!</t>
+  </si>
+  <si>
+    <t>P01000033</t>
   </si>
   <si>
     <t>PKK000000</t>
@@ -150,9 +188,39 @@
     <t>Lo@12345</t>
   </si>
   <si>
+    <t>P01000166</t>
+  </si>
+  <si>
+    <t>PL01000005</t>
+  </si>
+  <si>
+    <t>P01197747</t>
+  </si>
+  <si>
     <t>P01030535</t>
   </si>
   <si>
+    <t>P01AP1134</t>
+  </si>
+  <si>
+    <t>Loreal@12</t>
+  </si>
+  <si>
+    <t>P01000008</t>
+  </si>
+  <si>
+    <t>T01003340</t>
+  </si>
+  <si>
+    <t>PKMH012345</t>
+  </si>
+  <si>
+    <t>TH_national_id</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -165,6 +233,9 @@
     <t>mobile_number</t>
   </si>
   <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
     <t>landline_number</t>
   </si>
   <si>
@@ -174,7 +245,16 @@
     <t>dob_month</t>
   </si>
   <si>
-    <t>dob_year</t>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
   </si>
   <si>
     <t>gender_male</t>
@@ -186,6 +266,9 @@
     <t>email_id</t>
   </si>
   <si>
+    <t>test_name</t>
+  </si>
+  <si>
     <t>add_street_number</t>
   </si>
   <si>
@@ -207,25 +290,49 @@
     <t>sample_text_1</t>
   </si>
   <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
     <t>member_id</t>
   </si>
   <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>TestXYZ</t>
-  </si>
-  <si>
-    <t>TestABC</t>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
   <si>
     <t>TestMid</t>
@@ -234,6 +341,9 @@
     <t>April</t>
   </si>
   <si>
+    <t>Apr</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -243,10 +353,10 @@
     <t>mraghuram19@gmail.com</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
+    <t>testStreet</t>
+  </si>
+  <si>
+    <t>testCity</t>
   </si>
   <si>
     <t>Queensland</t>
@@ -264,14 +374,116 @@
     <t>サンプル</t>
   </si>
   <si>
-    <t>testmail</t>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>FE246</t>
+  </si>
+  <si>
+    <t>FE247</t>
+  </si>
+  <si>
+    <t>FE248</t>
+  </si>
+  <si>
+    <t>FE249</t>
+  </si>
+  <si>
+    <t>FE250</t>
+  </si>
+  <si>
+    <t>FE251</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>product2</t>
+  </si>
+  <si>
+    <t>ULTRA FACIAL CREAM</t>
+  </si>
+  <si>
+    <t>DERM PSLRC R18 50ML</t>
+  </si>
+  <si>
+    <t>ultra facial toner</t>
+  </si>
+  <si>
+    <t>baby lip balm</t>
+  </si>
+  <si>
+    <t>Buttermask for Lips</t>
+  </si>
+  <si>
+    <t>Ultra Facial Cream</t>
+  </si>
+  <si>
+    <t>MIDNIGHT RECOVERY EYE OS 15ML</t>
+  </si>
+  <si>
+    <t>ultra facial masque 125ml os</t>
+  </si>
+  <si>
+    <t>RE FS CREAM 50ML</t>
+  </si>
+  <si>
+    <t>BLUSH S CUSHION 032</t>
+  </si>
+  <si>
+    <t>MIDNIGHT RECOVERY EYE</t>
+  </si>
+  <si>
+    <t>youth dose eye treatment</t>
+  </si>
+  <si>
+    <t>age defender eye repair</t>
+  </si>
+  <si>
+    <t>age defender moisturizer</t>
+  </si>
+  <si>
+    <t>PSLRC 50ML</t>
+  </si>
+  <si>
+    <t>CC DARK SPOT 30ML</t>
+  </si>
+  <si>
+    <t>ultra facial cleanser</t>
+  </si>
+  <si>
+    <t>blue herbal spot treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +511,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -320,17 +545,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -342,13 +611,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -356,12 +627,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,7 +674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -666,7 +962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,92 +973,92 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -778,22 +1074,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61347E-61AD-4932-9AA9-319667F233ED}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -809,89 +1106,195 @@
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -902,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCACCAE3-DBC4-457A-B8DF-93037B09B635}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,9 +1317,10 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -932,90 +1336,188 @@
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1024,248 +1526,1492 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1571AEC0-803B-4C0A-A2F7-B0F3F9C9CF0A}">
-  <dimension ref="A1:X3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E2D506-4548-4DC9-A70E-4B10405D5BF5}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="15">
+        <v>8548565948260</v>
+      </c>
+      <c r="B2" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="15">
+        <v>9450469853557</v>
+      </c>
+      <c r="B3" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="15">
+        <v>3948669967118</v>
+      </c>
+      <c r="B4" s="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="15">
+        <v>1059720392655</v>
+      </c>
+      <c r="B5" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="15">
+        <v>6760625788811</v>
+      </c>
+      <c r="B6" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="15">
+        <v>9133812723983</v>
+      </c>
+      <c r="B7" s="17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="15">
+        <v>2416335689653</v>
+      </c>
+      <c r="B8" s="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="15">
+        <v>5528237059081</v>
+      </c>
+      <c r="B9" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="15">
+        <v>8310005688801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="15">
+        <v>2522400209610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="15">
+        <v>8080396582252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="15">
+        <v>3112996418968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="15">
+        <v>7112759843145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="15">
+        <v>4515849177246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="15">
+        <v>7101053760872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" s="15">
+        <v>4365374204670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" s="15">
+        <v>4389196704772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" s="15">
+        <v>6301024076195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75">
+      <c r="A20" s="15">
+        <v>2055217028820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75">
+      <c r="A21" s="15">
+        <v>8088310123596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75">
+      <c r="A22" s="15">
+        <v>8531189940672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75">
+      <c r="A23" s="15">
+        <v>8585943805517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75">
+      <c r="A24" s="15">
+        <v>3317827396986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75">
+      <c r="A25" s="15">
+        <v>2871694312134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75">
+      <c r="A26" s="15">
+        <v>3740887733270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
+  <dimension ref="A1:AK12"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" customWidth="1"/>
+    <col min="34" max="34" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1">
+    <row r="1" spans="1:37" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9876543212</v>
-      </c>
-      <c r="F2" s="3">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>6161616161</v>
+      </c>
+      <c r="F2">
+        <v>98765</v>
+      </c>
+      <c r="G2">
         <v>4455667788</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2">
         <v>1994</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="L2">
+        <v>2006</v>
+      </c>
+      <c r="M2">
+        <v>2003</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="3">
-        <v>123456</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>73</v>
-      </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>106</v>
+      </c>
+      <c r="T2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2">
+        <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2">
+        <v>108</v>
+      </c>
+      <c r="W2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2">
         <v>8280004</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="AC2">
+        <v>4786532</v>
+      </c>
+      <c r="AD2">
+        <v>852</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="4">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>9876543212</v>
+      </c>
+      <c r="F3">
+        <v>720123</v>
+      </c>
+      <c r="G3">
+        <v>4455667788</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3">
+        <v>1994</v>
+      </c>
+      <c r="L3">
+        <v>2006</v>
+      </c>
+      <c r="M3">
+        <v>2003</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3">
+        <v>123456</v>
+      </c>
+      <c r="V3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3">
+        <v>720123</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB3">
+        <v>8280004</v>
+      </c>
+      <c r="AC3">
+        <v>573</v>
+      </c>
+      <c r="AD3">
+        <v>852</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>9876543212</v>
+      </c>
+      <c r="F4">
+        <v>61616</v>
+      </c>
+      <c r="G4">
+        <v>4455667788</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4">
+        <v>1994</v>
+      </c>
+      <c r="L4">
+        <v>2006</v>
+      </c>
+      <c r="M4">
+        <v>2003</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4">
+        <v>123456</v>
+      </c>
+      <c r="V4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4">
+        <v>8280004</v>
+      </c>
+      <c r="AC4">
+        <v>4786532</v>
+      </c>
+      <c r="AD4">
+        <v>852</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>9876543212</v>
+      </c>
+      <c r="F5">
+        <v>18465</v>
+      </c>
+      <c r="G5">
+        <v>4455667788</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5">
+        <v>1994</v>
+      </c>
+      <c r="L5">
+        <v>2006</v>
+      </c>
+      <c r="M5">
+        <v>2003</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5">
+        <v>123456</v>
+      </c>
+      <c r="V5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5">
+        <v>720123</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5">
+        <v>8280004</v>
+      </c>
+      <c r="AC5">
+        <v>4786532</v>
+      </c>
+      <c r="AD5">
+        <v>852</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>60838324</v>
+      </c>
+      <c r="F6">
         <v>98765</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G6">
         <v>4455667788</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6">
         <v>1994</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L6">
+        <v>2006</v>
+      </c>
+      <c r="M6">
+        <v>2003</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="S6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6">
         <v>123456</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3">
-        <v>4786512</v>
-      </c>
-      <c r="U3" s="8">
+      <c r="V6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB6">
+        <v>8280004</v>
+      </c>
+      <c r="AC6">
+        <v>4786532</v>
+      </c>
+      <c r="AD6">
+        <v>852</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>6161616161</v>
+      </c>
+      <c r="F7">
+        <v>98765</v>
+      </c>
+      <c r="G7">
+        <v>4455667788</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7">
+        <v>1994</v>
+      </c>
+      <c r="L7">
+        <v>2006</v>
+      </c>
+      <c r="M7">
+        <v>2003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7">
+        <v>123456</v>
+      </c>
+      <c r="V7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7">
         <v>720123</v>
       </c>
-      <c r="V3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="X3">
+      <c r="Z7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB7">
         <v>8280004</v>
+      </c>
+      <c r="AC7">
+        <v>4786532</v>
+      </c>
+      <c r="AD7">
+        <v>852</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>9876543212</v>
+      </c>
+      <c r="F8">
+        <v>82323</v>
+      </c>
+      <c r="G8">
+        <v>4455667788</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8">
+        <v>1994</v>
+      </c>
+      <c r="L8">
+        <v>2006</v>
+      </c>
+      <c r="M8">
+        <v>2003</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8">
+        <v>123456</v>
+      </c>
+      <c r="V8" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB8">
+        <v>8280004</v>
+      </c>
+      <c r="AC8">
+        <v>4786532</v>
+      </c>
+      <c r="AD8">
+        <v>852</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>9876543212</v>
+      </c>
+      <c r="F9" s="18">
+        <v>88834</v>
+      </c>
+      <c r="G9">
+        <v>4455667788</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9">
+        <v>1994</v>
+      </c>
+      <c r="L9">
+        <v>2006</v>
+      </c>
+      <c r="M9">
+        <v>2003</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9">
+        <v>11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9">
+        <v>123456</v>
+      </c>
+      <c r="V9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9">
+        <v>720123</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB9">
+        <v>8280004</v>
+      </c>
+      <c r="AC9">
+        <v>4786532</v>
+      </c>
+      <c r="AD9">
+        <v>852</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>6161616161</v>
+      </c>
+      <c r="F10">
+        <v>98765</v>
+      </c>
+      <c r="G10">
+        <v>4455667788</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10">
+        <v>1994</v>
+      </c>
+      <c r="L10">
+        <v>2006</v>
+      </c>
+      <c r="M10">
+        <v>2003</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10">
+        <v>123456</v>
+      </c>
+      <c r="V10" t="s">
+        <v>108</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB10">
+        <v>8280004</v>
+      </c>
+      <c r="AC10">
+        <v>4786532</v>
+      </c>
+      <c r="AD10">
+        <v>852</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="Y11" s="10"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="AA12" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AI2" r:id="rId1" xr:uid="{8611917F-E5E5-4B64-8823-8B0D86368674}"/>
+    <hyperlink ref="AI3:AI10" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
+    <hyperlink ref="AJ3:AJ10" r:id="rId3" display="a@a.com" xr:uid="{66F15A09-FA0A-4385-8239-C7FE1B870288}"/>
+    <hyperlink ref="AJ2" r:id="rId4" xr:uid="{A10CFF93-CD4C-4FB5-B74D-1107F393E76E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE6DB8C-2DD6-42D1-AF16-E8459D5B86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0D9902-2180-4716-821B-605F1610E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="139">
   <si>
     <t>segment</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -173,12 +167,6 @@
     <t>sTUJ#5$d</t>
   </si>
   <si>
-    <t>IBTQNZKIE</t>
-  </si>
-  <si>
-    <t>0W3aGorHED!</t>
-  </si>
-  <si>
     <t>P01000033</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>T01003340</t>
   </si>
   <si>
-    <t>PKMH012345</t>
-  </si>
-  <si>
     <t>TH_national_id</t>
   </si>
   <si>
@@ -416,37 +401,31 @@
     <t>FE250</t>
   </si>
   <si>
-    <t>FE251</t>
-  </si>
-  <si>
     <t>product1</t>
   </si>
   <si>
     <t>product2</t>
   </si>
   <si>
-    <t>ULTRA FACIAL CREAM</t>
-  </si>
-  <si>
-    <t>DERM PSLRC R18 50ML</t>
-  </si>
-  <si>
-    <t>ultra facial toner</t>
-  </si>
-  <si>
-    <t>baby lip balm</t>
-  </si>
-  <si>
-    <t>Buttermask for Lips</t>
-  </si>
-  <si>
-    <t>Ultra Facial Cream</t>
-  </si>
-  <si>
-    <t>MIDNIGHT RECOVERY EYE OS 15ML</t>
-  </si>
-  <si>
-    <t>ultra facial masque 125ml os</t>
+    <t>ABSOLUE SOFT CREAM REFILL</t>
+  </si>
+  <si>
+    <t>ABSOLUE EYE SERUM</t>
+  </si>
+  <si>
+    <t>BEX DAY CREAM 50ML</t>
+  </si>
+  <si>
+    <t>TIU STICK 005</t>
+  </si>
+  <si>
+    <t>ABSOLUE PRECIOUS CELL EMULSION</t>
+  </si>
+  <si>
+    <t>GENIFIQUE DOUBLE DROP</t>
+  </si>
+  <si>
+    <t>CONFORT TONIQUE 400ML</t>
   </si>
   <si>
     <t>RE FS CREAM 50ML</t>
@@ -455,28 +434,22 @@
     <t>BLUSH S CUSHION 032</t>
   </si>
   <si>
-    <t>MIDNIGHT RECOVERY EYE</t>
-  </si>
-  <si>
-    <t>youth dose eye treatment</t>
-  </si>
-  <si>
-    <t>age defender eye repair</t>
-  </si>
-  <si>
-    <t>age defender moisturizer</t>
-  </si>
-  <si>
-    <t>PSLRC 50ML</t>
-  </si>
-  <si>
-    <t>CC DARK SPOT 30ML</t>
-  </si>
-  <si>
-    <t>ultra facial cleanser</t>
-  </si>
-  <si>
-    <t>blue herbal spot treatment</t>
+    <t>ABSOLUE RICH CREAM 60ML</t>
+  </si>
+  <si>
+    <t>ABSOLUE ROSE ESSENCE 150ML</t>
+  </si>
+  <si>
+    <t>MATTE SHAKER 378</t>
+  </si>
+  <si>
+    <t>LOOSE SETTING POWDER TRANSLUCENT</t>
+  </si>
+  <si>
+    <t>LONG TIME NO SHINE LOOSE POWDER</t>
+  </si>
+  <si>
+    <t>ABSOLUE RICH CREAM REFILL</t>
   </si>
 </sst>
 </file>
@@ -970,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -982,7 +955,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -990,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -998,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1054,17 +1027,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+    <row r="16" spans="1:9">
+      <c r="I16" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1074,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61347E-61AD-4932-9AA9-319667F233ED}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1092,22 +1057,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1115,19 +1080,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -1136,19 +1101,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1157,19 +1122,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1178,19 +1143,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1199,19 +1164,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1220,19 +1185,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -1241,19 +1206,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -1262,41 +1227,21 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1305,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCACCAE3-DBC4-457A-B8DF-93037B09B635}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,22 +1267,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1345,19 +1290,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1365,19 +1310,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1385,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1405,19 +1350,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1425,19 +1370,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1445,19 +1390,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1465,19 +1410,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1485,39 +1430,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1541,10 +1466,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -1703,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1741,115 +1666,115 @@
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -1857,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1878,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1893,43 +1818,43 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Z2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -1941,22 +1866,22 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1964,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1985,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2000,46 +1925,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2051,25 +1976,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" t="s">
         <v>115</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2077,13 +2002,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2098,10 +2023,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2113,43 +2038,43 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Z4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2161,22 +2086,22 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ4" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2184,13 +2109,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2205,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2220,46 +2145,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2271,22 +2196,22 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI5" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI5" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ5" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2294,13 +2219,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>60838324</v>
@@ -2315,10 +2240,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2330,43 +2255,43 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2378,22 +2303,22 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ6" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2401,13 +2326,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2422,10 +2347,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2437,46 +2362,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2488,22 +2413,22 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ7" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2511,13 +2436,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2532,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -2547,43 +2472,43 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Z8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -2595,22 +2520,22 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ8" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2618,13 +2543,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -2639,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -2654,46 +2579,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -2705,130 +2630,46 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ9" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>6161616161</v>
-      </c>
-      <c r="F10">
-        <v>98765</v>
-      </c>
-      <c r="G10">
-        <v>4455667788</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10">
-        <v>1994</v>
-      </c>
-      <c r="L10">
-        <v>2006</v>
-      </c>
-      <c r="M10">
-        <v>2003</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10">
-        <v>11</v>
-      </c>
-      <c r="S10" t="s">
-        <v>106</v>
-      </c>
-      <c r="T10" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10">
-        <v>123456</v>
-      </c>
-      <c r="V10" t="s">
-        <v>108</v>
-      </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB10">
-        <v>8280004</v>
-      </c>
-      <c r="AC10">
-        <v>4786532</v>
-      </c>
-      <c r="AD10">
-        <v>852</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI10" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="Y10" s="10"/>
+      <c r="AA10" s="9"/>
     </row>
     <row r="11" spans="1:37">
       <c r="D11" s="4"/>
@@ -2850,36 +2691,13 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="3"/>
-      <c r="Y11" s="10"/>
       <c r="AA11" s="9"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="3"/>
-      <c r="AA12" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AI2" r:id="rId1" xr:uid="{8611917F-E5E5-4B64-8823-8B0D86368674}"/>
-    <hyperlink ref="AI3:AI10" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
-    <hyperlink ref="AJ3:AJ10" r:id="rId3" display="a@a.com" xr:uid="{66F15A09-FA0A-4385-8239-C7FE1B870288}"/>
+    <hyperlink ref="AI3:AI9" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
+    <hyperlink ref="AJ3:AJ9" r:id="rId3" display="a@a.com" xr:uid="{66F15A09-FA0A-4385-8239-C7FE1B870288}"/>
     <hyperlink ref="AJ2" r:id="rId4" xr:uid="{A10CFF93-CD4C-4FB5-B74D-1107F393E76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,16 +2706,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
@@ -2906,13 +2724,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2920,10 +2738,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2931,10 +2749,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2942,10 +2760,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2953,10 +2771,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2964,10 +2782,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2975,10 +2793,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2986,10 +2804,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2997,21 +2815,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0D9902-2180-4716-821B-605F1610E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9670E92-61BE-488F-8321-119717FA8E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
     <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="custom_data" sheetId="5" r:id="rId4"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId5"/>
-    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId6"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId4"/>
+    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId5"/>
+    <sheet name="cms_configuration" sheetId="7" r:id="rId6"/>
+    <sheet name="data_configuration" sheetId="8" r:id="rId7"/>
+    <sheet name="member_data" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="181">
   <si>
     <t>segment</t>
   </si>
@@ -200,144 +202,141 @@
     <t>T01003340</t>
   </si>
   <si>
-    <t>TH_national_id</t>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>mobile_number_rand</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_month_short</t>
-  </si>
-  <si>
-    <t>dob_year_1994</t>
-  </si>
-  <si>
-    <t>dob_year_2006</t>
-  </si>
-  <si>
-    <t>dob_year_2003</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
     <t>testStreet</t>
   </si>
   <si>
@@ -395,6 +394,9 @@
     <t>FE248</t>
   </si>
   <si>
+    <t>Non- Thai</t>
+  </si>
+  <si>
     <t>FE249</t>
   </si>
   <si>
@@ -450,12 +452,141 @@
   </si>
   <si>
     <t>ABSOLUE RICH CREAM REFILL</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>service_booking</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>consultation_multi_page</t>
+  </si>
+  <si>
+    <t>product_reservation</t>
+  </si>
+  <si>
+    <t>welcome_popup</t>
+  </si>
+  <si>
+    <t>consultation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>search_0</t>
+  </si>
+  <si>
+    <t>search_1</t>
+  </si>
+  <si>
+    <t>search_2</t>
+  </si>
+  <si>
+    <t>search_3</t>
+  </si>
+  <si>
+    <t>search_4</t>
+  </si>
+  <si>
+    <t>Mars ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Name_dashboard</t>
+  </si>
+  <si>
+    <t>Email_dashboard</t>
+  </si>
+  <si>
+    <t>Mobile Number_dashboard</t>
+  </si>
+  <si>
+    <t>First Name_dashboard</t>
+  </si>
+  <si>
+    <t>Last Name_dashboard</t>
+  </si>
+  <si>
+    <t>Mars ID_dashboard</t>
+  </si>
+  <si>
+    <t>Lucid_dashboard</t>
+  </si>
+  <si>
+    <t>Client Name_dashboard</t>
+  </si>
+  <si>
+    <t>emptydatatest@gmail.com</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>45WM6000403</t>
+  </si>
+  <si>
+    <t>C70000000055715</t>
+  </si>
+  <si>
+    <t>45j50007894</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -529,11 +660,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -560,8 +686,14 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,9 +724,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,23 +749,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -946,7 +1078,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,7 +1174,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,7 +1298,7 @@
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1229,7 +1361,7 @@
       <c r="B9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1253,7 +1385,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,187 +1583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E2D506-4548-4DC9-A70E-4B10405D5BF5}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="15">
-        <v>8548565948260</v>
-      </c>
-      <c r="B2" s="17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="15">
-        <v>9450469853557</v>
-      </c>
-      <c r="B3" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="15">
-        <v>3948669967118</v>
-      </c>
-      <c r="B4" s="17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="15">
-        <v>1059720392655</v>
-      </c>
-      <c r="B5" s="17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="15">
-        <v>6760625788811</v>
-      </c>
-      <c r="B6" s="17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="15">
-        <v>9133812723983</v>
-      </c>
-      <c r="B7" s="17">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="15">
-        <v>2416335689653</v>
-      </c>
-      <c r="B8" s="17">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="15">
-        <v>5528237059081</v>
-      </c>
-      <c r="B9" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="15">
-        <v>8310005688801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="15">
-        <v>2522400209610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="15">
-        <v>8080396582252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="15">
-        <v>3112996418968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="15">
-        <v>7112759843145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="15">
-        <v>4515849177246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="15">
-        <v>7101053760872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="15">
-        <v>4365374204670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="15">
-        <v>4389196704772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="15">
-        <v>6301024076195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="15">
-        <v>2055217028820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="15">
-        <v>8088310123596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="15">
-        <v>8531189940672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="15">
-        <v>8585943805517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="15">
-        <v>3317827396986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="15">
-        <v>2871694312134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="15">
-        <v>3740887733270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1669,112 +1625,112 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -1782,13 +1738,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1803,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1818,43 +1774,43 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" t="s">
         <v>98</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>99</v>
-      </c>
-      <c r="P2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
         <v>101</v>
-      </c>
-      <c r="T2" t="s">
-        <v>102</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" t="s">
         <v>103</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>104</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>105</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>106</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>107</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -1866,22 +1822,22 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
         <v>108</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1889,13 +1845,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1910,10 +1866,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -1925,46 +1881,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
         <v>98</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>99</v>
-      </c>
-      <c r="P3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" t="s">
         <v>101</v>
-      </c>
-      <c r="T3" t="s">
-        <v>102</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" t="s">
         <v>103</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>104</v>
-      </c>
-      <c r="X3" t="s">
-        <v>105</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" t="s">
         <v>106</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>107</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -1976,25 +1932,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" t="s">
         <v>108</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>109</v>
       </c>
-      <c r="AG3" t="s">
-        <v>110</v>
-      </c>
       <c r="AH3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK3" t="s">
         <v>114</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2002,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2023,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2038,43 +1994,43 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
         <v>98</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>99</v>
-      </c>
-      <c r="P4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>56</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" t="s">
         <v>101</v>
-      </c>
-      <c r="T4" t="s">
-        <v>102</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" t="s">
         <v>103</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>104</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>105</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>106</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>107</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2086,22 +2042,22 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF4" t="s">
         <v>108</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>109</v>
       </c>
-      <c r="AG4" t="s">
-        <v>110</v>
-      </c>
       <c r="AH4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ4" s="19" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2109,13 +2065,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2130,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2145,46 +2101,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
         <v>98</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>99</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" t="s">
         <v>101</v>
-      </c>
-      <c r="T5" t="s">
-        <v>102</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" t="s">
         <v>103</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>104</v>
-      </c>
-      <c r="X5" t="s">
-        <v>105</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA5" t="s">
         <v>106</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>107</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2196,22 +2152,22 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" t="s">
-        <v>110</v>
-      </c>
       <c r="AH5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI5" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ5" s="19" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ5" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2219,13 +2175,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
       </c>
       <c r="E6">
         <v>60838324</v>
@@ -2240,10 +2196,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2255,43 +2211,43 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
         <v>98</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>99</v>
-      </c>
-      <c r="P6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T6" t="s">
         <v>101</v>
-      </c>
-      <c r="T6" t="s">
-        <v>102</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" t="s">
         <v>103</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>104</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>105</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>106</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>107</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2303,22 +2259,22 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF6" t="s">
         <v>108</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>109</v>
       </c>
-      <c r="AG6" t="s">
-        <v>110</v>
-      </c>
       <c r="AH6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2326,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2347,10 +2303,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2362,46 +2318,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
         <v>98</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>56</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" t="s">
         <v>101</v>
-      </c>
-      <c r="T7" t="s">
-        <v>102</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" t="s">
         <v>103</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>104</v>
-      </c>
-      <c r="X7" t="s">
-        <v>105</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA7" t="s">
         <v>106</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>107</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2413,22 +2369,22 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF7" t="s">
         <v>108</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>109</v>
       </c>
-      <c r="AG7" t="s">
-        <v>110</v>
-      </c>
       <c r="AH7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2436,13 +2392,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
         <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2457,10 +2413,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -2472,43 +2428,43 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
         <v>98</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>99</v>
-      </c>
-      <c r="P8" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>56</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" t="s">
         <v>101</v>
-      </c>
-      <c r="T8" t="s">
-        <v>102</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" t="s">
         <v>103</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>104</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>105</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>107</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -2520,22 +2476,22 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF8" t="s">
         <v>108</v>
       </c>
-      <c r="AF8" t="s">
-        <v>109</v>
-      </c>
       <c r="AG8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AH8" t="s">
         <v>120</v>
       </c>
-      <c r="AI8" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ8" s="19" t="s">
-        <v>113</v>
+      <c r="AI8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2543,18 +2499,18 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="14">
         <v>88834</v>
       </c>
       <c r="G9">
@@ -2564,10 +2520,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -2579,46 +2535,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
         <v>98</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>99</v>
-      </c>
-      <c r="P9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>56</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
         <v>101</v>
-      </c>
-      <c r="T9" t="s">
-        <v>102</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" t="s">
         <v>103</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>104</v>
-      </c>
-      <c r="X9" t="s">
-        <v>105</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA9" t="s">
         <v>106</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>107</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -2630,22 +2586,22 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF9" t="s">
         <v>108</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>109</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>110</v>
       </c>
       <c r="AH9" t="s">
         <v>121</v>
       </c>
-      <c r="AI9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>113</v>
+      <c r="AI9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2704,12 +2660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2792,7 +2748,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C7" t="s">
@@ -2824,4 +2780,947 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E856C-AA1D-4871-9FD1-D099C31C7B96}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEE402C-E806-4880-BDF0-54BC487CABA5}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09F7CF9-6F52-4DF0-A56A-B9A42C70CD7F}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="24.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20" style="19" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="19"/>
+    <col min="11" max="11" width="16.140625" style="19" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="19"/>
+    <col min="16" max="16" width="18.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="15" style="19" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="20" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3101900587231</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{902D98D1-5C90-46AA-8E78-74E04665289B}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{18825D9F-DE9B-4628-937B-BE9BB7E8BC65}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{A7E1DF2A-D33E-43A9-8EA2-EEA819F9E85E}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{F8D2295D-8B8C-45FF-B6E0-34F208637063}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{62CA8597-47D1-4FD6-BE62-0FF1D62C7B28}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{3C46D12F-2AD2-499E-8393-7C9BC14E9556}"/>
+    <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{65EDDDB1-FCC8-4519-8A01-E05E4C5B85EC}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{720A2EFD-4A0F-425C-B465-D6FF648DB7BA}"/>
+    <hyperlink ref="L5" r:id="rId9" xr:uid="{28268567-8147-4C42-9BC0-E06BB8F158D4}"/>
+    <hyperlink ref="L8" r:id="rId10" xr:uid="{5C54FB9D-1931-4B91-BF7B-8F8F9CDA0858}"/>
+    <hyperlink ref="L10" r:id="rId11" xr:uid="{CE79E0DB-4EA5-4AD6-929B-15D4F32DE6C5}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{3153A3D2-A281-41B3-8E7E-0221E10E590F}"/>
+    <hyperlink ref="L9" r:id="rId13" xr:uid="{73B9C1F0-4751-4C2F-AA16-4FB00667749C}"/>
+    <hyperlink ref="L2:L4" r:id="rId14" xr:uid="{B6AD1901-0BDC-4E86-B9FE-D94C446FDD45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9670E92-61BE-488F-8321-119717FA8E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC435A90-52E6-47D2-BC9D-5264684241DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>NZ</t>
   </si>
   <si>
@@ -523,21 +520,21 @@
     <t>Client Name</t>
   </si>
   <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
     <t>Lucid</t>
   </si>
   <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National ID</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>45WM6000403</t>
+  </si>
+  <si>
+    <t>013R0S00047</t>
   </si>
   <si>
     <t>C70000000055715</t>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2786,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E856C-AA1D-4871-9FD1-D099C31C7B96}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2960,16 +2960,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>149</v>
@@ -2984,7 +2984,7 @@
         <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3085,7 +3085,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>148</v>
@@ -3125,7 +3125,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3140,19 +3140,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3163,10 +3163,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3174,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3182,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3190,10 +3190,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3201,10 +3201,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3212,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3220,10 +3220,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3231,24 +3231,24 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
         <v>157</v>
       </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3260,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09F7CF9-6F52-4DF0-A56A-B9A42C70CD7F}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3290,55 +3290,55 @@
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75">
@@ -3346,81 +3346,81 @@
         <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="H2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="P2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R2" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" t="s">
         <v>178</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" t="s">
         <v>178</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>179</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75">
@@ -3428,43 +3428,43 @@
         <v>10</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="P4" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>179</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75">
@@ -3472,40 +3472,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R5" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3513,19 +3513,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>178</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>91</v>
@@ -3534,19 +3534,19 @@
         <v>180</v>
       </c>
       <c r="L6" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="P6" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>178</v>
-      </c>
       <c r="R6" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75">
@@ -3554,37 +3554,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="H7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P7" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75">
@@ -3592,19 +3592,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="H8" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="19">
         <v>3101900587231</v>
@@ -3613,19 +3613,19 @@
         <v>91</v>
       </c>
       <c r="L8" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="P8" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R8" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75">
@@ -3633,75 +3633,75 @@
         <v>16</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L9" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="O9" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="P9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R9" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="H10" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="O10" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="P10" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P10" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R10" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC435A90-52E6-47D2-BC9D-5264684241DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA9F63E-3869-4EEE-82BB-CB95AD969BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="184">
   <si>
     <t>segment</t>
   </si>
@@ -481,12 +481,12 @@
     <t>consultation</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>NZ</t>
   </si>
   <si>
@@ -517,24 +517,24 @@
     <t>Email</t>
   </si>
   <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National ID</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -577,7 +577,16 @@
     <t>C70000000055715</t>
   </si>
   <si>
+    <t>01A10027500</t>
+  </si>
+  <si>
+    <t>01ZY7000125</t>
+  </si>
+  <si>
     <t>45j50007894</t>
+  </si>
+  <si>
+    <t>new@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1183,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,7 +1394,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2786,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E856C-AA1D-4871-9FD1-D099C31C7B96}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2838,22 +2847,22 @@
         <v>148</v>
       </c>
       <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
         <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" t="s">
-        <v>148</v>
       </c>
       <c r="J2" t="s">
         <v>148</v>
@@ -2864,31 +2873,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
         <v>149</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>149</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2896,31 +2905,31 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>149</v>
       </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" t="s">
         <v>149</v>
       </c>
-      <c r="I4" t="s">
-        <v>148</v>
-      </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2928,19 +2937,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
         <v>148</v>
@@ -2951,8 +2960,8 @@
       <c r="I5" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>149</v>
+      <c r="J5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2960,31 +2969,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
         <v>149</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" t="s">
-        <v>148</v>
-      </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2995,7 +3004,7 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
@@ -3004,13 +3013,13 @@
         <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
         <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
         <v>148</v>
@@ -3024,31 +3033,31 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
         <v>149</v>
       </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" t="s">
-        <v>148</v>
-      </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3056,31 +3065,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
         <v>149</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
         <v>149</v>
       </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" t="s">
-        <v>148</v>
-      </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3088,31 +3097,31 @@
         <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
         <v>149</v>
       </c>
-      <c r="G10" t="s">
-        <v>148</v>
-      </c>
       <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
         <v>149</v>
       </c>
-      <c r="I10" t="s">
-        <v>148</v>
-      </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3134,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3190,7 +3199,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>156</v>
@@ -3204,7 +3213,7 @@
         <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3220,7 +3229,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -3248,7 +3257,7 @@
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3260,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09F7CF9-6F52-4DF0-A56A-B9A42C70CD7F}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3293,25 +3302,25 @@
         <v>159</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>157</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="I1" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>158</v>
@@ -3423,7 +3432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75">
+    <row r="4" spans="1:18">
       <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
@@ -3436,8 +3445,8 @@
       <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>177</v>
+      <c r="F4" t="s">
+        <v>180</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>114</v>
@@ -3457,8 +3466,8 @@
       <c r="O4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="22" t="s">
-        <v>177</v>
+      <c r="P4" t="s">
+        <v>180</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>179</v>
@@ -3521,8 +3530,8 @@
       <c r="E6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>177</v>
+      <c r="F6" t="s">
+        <v>181</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>175</v>
@@ -3531,7 +3540,7 @@
         <v>91</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>174</v>
@@ -3542,8 +3551,8 @@
       <c r="O6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>177</v>
+      <c r="P6" t="s">
+        <v>181</v>
       </c>
       <c r="R6" s="19" t="s">
         <v>175</v>
@@ -3633,7 +3642,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>175</v>

--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA9F63E-3869-4EEE-82BB-CB95AD969BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC435A90-52E6-47D2-BC9D-5264684241DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="181">
   <si>
     <t>segment</t>
   </si>
@@ -481,12 +481,12 @@
     <t>consultation</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>NZ</t>
   </si>
   <si>
@@ -517,6 +517,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Client Name</t>
+  </si>
+  <si>
     <t>名前（名）</t>
   </si>
   <si>
@@ -532,9 +535,6 @@
     <t>Lucid</t>
   </si>
   <si>
-    <t>Client Name</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -577,16 +577,7 @@
     <t>C70000000055715</t>
   </si>
   <si>
-    <t>01A10027500</t>
-  </si>
-  <si>
-    <t>01ZY7000125</t>
-  </si>
-  <si>
     <t>45j50007894</t>
-  </si>
-  <si>
-    <t>new@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1174,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1394,7 +1385,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2795,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E856C-AA1D-4871-9FD1-D099C31C7B96}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2847,22 +2838,22 @@
         <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
         <v>148</v>
@@ -2873,31 +2864,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2905,31 +2896,31 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2937,19 +2928,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
         <v>148</v>
@@ -2960,8 +2951,8 @@
       <c r="I5" t="s">
         <v>148</v>
       </c>
-      <c r="J5" t="s">
-        <v>148</v>
+      <c r="J5" s="24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2969,31 +2960,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3004,7 +2995,7 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
@@ -3013,13 +3004,13 @@
         <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
         <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
         <v>148</v>
@@ -3033,31 +3024,31 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3065,31 +3056,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3097,31 +3088,31 @@
         <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3125,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3199,7 +3190,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>156</v>
@@ -3213,7 +3204,7 @@
         <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3229,7 +3220,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -3257,7 +3248,7 @@
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3269,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09F7CF9-6F52-4DF0-A56A-B9A42C70CD7F}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3302,25 +3293,25 @@
         <v>159</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>157</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>158</v>
@@ -3432,7 +3423,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
@@ -3445,8 +3436,8 @@
       <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F4" t="s">
-        <v>180</v>
+      <c r="F4" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>114</v>
@@ -3466,8 +3457,8 @@
       <c r="O4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P4" t="s">
-        <v>180</v>
+      <c r="P4" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>179</v>
@@ -3530,8 +3521,8 @@
       <c r="E6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F6" t="s">
-        <v>181</v>
+      <c r="F6" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>175</v>
@@ -3540,7 +3531,7 @@
         <v>91</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>174</v>
@@ -3551,8 +3542,8 @@
       <c r="O6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P6" t="s">
-        <v>181</v>
+      <c r="P6" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="R6" s="19" t="s">
         <v>175</v>
@@ -3642,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>175</v>

--- a/src/test/resources/Data/LancomeTestData.xlsx
+++ b/src/test/resources/Data/LancomeTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26625"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC435A90-52E6-47D2-BC9D-5264684241DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{347E3A18-BC77-47F1-AF8A-0725BB4A7705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9477EDC-17C2-4EA4-BD2E-E030800F81A6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="185">
   <si>
     <t>segment</t>
   </si>
@@ -481,12 +481,12 @@
     <t>consultation</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>NZ</t>
   </si>
   <si>
@@ -511,30 +511,30 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National ID</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -577,7 +577,19 @@
     <t>C70000000055715</t>
   </si>
   <si>
+    <t>01A10027500</t>
+  </si>
+  <si>
+    <t>01ZY7000125</t>
+  </si>
+  <si>
     <t>45j50007894</t>
+  </si>
+  <si>
+    <t>Ramanathan12</t>
+  </si>
+  <si>
+    <t>new@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -726,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,6 +772,15 @@
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1174,7 +1195,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,7 +1406,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2787,7 +2808,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2838,22 +2859,22 @@
         <v>148</v>
       </c>
       <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
         <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" t="s">
-        <v>148</v>
       </c>
       <c r="J2" t="s">
         <v>148</v>
@@ -2864,31 +2885,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
         <v>149</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>149</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2896,31 +2917,31 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>149</v>
       </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" t="s">
         <v>149</v>
       </c>
-      <c r="I4" t="s">
-        <v>148</v>
-      </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2928,19 +2949,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
         <v>148</v>
@@ -2951,8 +2972,8 @@
       <c r="I5" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>149</v>
+      <c r="J5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2960,31 +2981,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
         <v>149</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" t="s">
-        <v>148</v>
-      </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2995,7 +3016,7 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
@@ -3004,13 +3025,13 @@
         <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
         <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
         <v>148</v>
@@ -3024,31 +3045,31 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
         <v>149</v>
       </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" t="s">
-        <v>148</v>
-      </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3056,31 +3077,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
         <v>149</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
         <v>149</v>
       </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" t="s">
-        <v>148</v>
-      </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3088,31 +3109,31 @@
         <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
         <v>149</v>
       </c>
-      <c r="G10" t="s">
-        <v>148</v>
-      </c>
       <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
         <v>149</v>
       </c>
-      <c r="I10" t="s">
-        <v>148</v>
-      </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3146,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3190,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>156</v>
@@ -3204,7 +3225,7 @@
         <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3220,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -3248,7 +3269,7 @@
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3258,29 +3279,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09F7CF9-6F52-4DF0-A56A-B9A42C70CD7F}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="24.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20" style="19" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="19"/>
-    <col min="11" max="11" width="16.140625" style="19" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="19"/>
-    <col min="16" max="16" width="18.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="14" style="19" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="19" customWidth="1"/>
     <col min="19" max="19" width="15" style="19" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="19"/>
   </cols>
@@ -3293,28 +3317,28 @@
         <v>159</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>157</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>166</v>
@@ -3423,7 +3447,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75">
+    <row r="4" spans="1:18">
       <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
@@ -3436,8 +3460,8 @@
       <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>177</v>
+      <c r="F4" t="s">
+        <v>180</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>114</v>
@@ -3457,8 +3481,8 @@
       <c r="O4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="22" t="s">
-        <v>177</v>
+      <c r="P4" t="s">
+        <v>180</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>179</v>
@@ -3521,8 +3545,8 @@
       <c r="E6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>177</v>
+      <c r="F6" t="s">
+        <v>181</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>175</v>
@@ -3531,7 +3555,7 @@
         <v>91</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>174</v>
@@ -3542,8 +3566,8 @@
       <c r="O6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>177</v>
+      <c r="P6" t="s">
+        <v>181</v>
       </c>
       <c r="R6" s="19" t="s">
         <v>175</v>
@@ -3560,7 +3584,7 @@
         <v>175</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>177</v>
@@ -3606,7 +3630,7 @@
       <c r="H8" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="27">
         <v>3101900587231</v>
       </c>
       <c r="J8" s="19" t="s">
@@ -3633,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>175</v>
@@ -3703,6 +3727,9 @@
       <c r="R10" s="19" t="s">
         <v>175</v>
       </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
